--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5900</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,28 +1084,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,28 +1119,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,51 +1160,63 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1504,69 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,23 +1734,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F42" s="3">
         <v>32900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>36300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,22 +1769,28 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F46" s="3">
         <v>35600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>40700</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,22 +1944,28 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F54" s="3">
         <v>36800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,37 +2394,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F66" s="3">
         <v>8000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,22 +2654,28 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>73000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-44200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-36000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2642,28 +3039,34 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,13 +3288,15 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -2864,22 +3305,28 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-40200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3579,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>90800</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>51700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>47800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -753,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
         <v>7300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
-        <v>8400</v>
-      </c>
       <c r="H12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="G17" s="3">
-        <v>10900</v>
-      </c>
       <c r="H17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,34 +1109,35 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,48 +1145,54 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1166,57 +1207,63 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,34 +1563,37 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,26 +1828,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E42" s="3">
         <v>97800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,8 +1866,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1784,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,25 +1942,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1880,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E46" s="3">
         <v>109700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2056,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E54" s="3">
         <v>110200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,20 +2544,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2573,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2435,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>73000</v>
@@ -2678,7 +2847,7 @@
         <v>73000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2695,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E76" s="3">
         <v>101200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-54000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-44200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-36000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,13 +3229,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3045,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3056,8 +3256,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-9200</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,31 +3524,34 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-72000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
-        <v>3700</v>
-      </c>
       <c r="H94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-40200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,20 +3829,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>90800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3606,48 +3853,51 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>51700</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3655,39 +3905,45 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-43000</v>
       </c>
-      <c r="I102" s="3">
-        <v>47800</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>18000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,8 +753,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>11500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,55 +1044,59 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,20 +1112,23 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,17 +1143,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1136,11 +1170,11 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,17 +1182,20 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,28 +1211,31 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1213,57 +1253,63 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,17 +1633,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,11 +1662,11 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E41" s="3">
         <v>18700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,29 +1918,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E42" s="3">
         <v>96400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>97800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,28 +2041,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E46" s="3">
         <v>117700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,18 +2342,18 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E54" s="3">
         <v>118300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,14 +2702,14 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2722,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>73000</v>
@@ -2850,7 +3018,7 @@
         <v>73000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E76" s="3">
         <v>105600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-54000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-44200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-36000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,17 +3428,18 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3259,8 +3458,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,13 +3732,14 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3527,31 +3748,34 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-72000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,23 +4075,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>90800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3859,48 +4105,51 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,11 +739,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>18000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,8 +759,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -768,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,11 +1124,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F18" s="3">
         <v>3900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,20 +1144,23 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,11 +1186,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,11 +1206,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,11 +1230,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,20 +1250,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,8 +1276,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1256,60 +1295,66 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,11 +1714,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1665,11 +1734,11 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
         <v>17900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,32 +2007,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E42" s="3">
         <v>84800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>97800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,13 +2051,16 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1977,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,31 +2139,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2085,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E46" s="3">
         <v>104300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>117700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,32 +2271,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,13 +2447,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -2345,18 +2464,18 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E54" s="3">
         <v>105100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,32 +2703,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,26 +2835,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2725,8 +2870,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3011,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>73000</v>
@@ -3021,7 +3188,7 @@
         <v>73000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-74100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E76" s="3">
         <v>93900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-54000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-44200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-36000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,20 +3626,21 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3461,8 +3659,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,16 +3952,17 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -3751,31 +3971,34 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>10800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-72000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,26 +4320,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>90800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4108,51 +4353,54 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,99 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>18000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,11 +770,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -774,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="3">
         <v>13400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,22 +1017,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1012,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,70 +1123,78 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="3">
         <v>20400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,20 +1207,26 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,26 +1243,28 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,38 +1277,44 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-12600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,20 +1327,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1279,11 +1359,11 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1298,63 +1378,75 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,26 +1839,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,64 +1877,76 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2138,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,38 +2184,44 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F42" s="3">
         <v>82600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>84800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>96400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>97800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>25700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>36300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,37 +2234,43 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2334,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2384,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>77400</v>
+      </c>
+      <c r="F46" s="3">
         <v>92100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>104300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>117700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>109700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>35600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>40700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2434,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,37 +2484,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>400</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2318,8 +2534,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,27 +2701,27 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2784,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>77600</v>
+      </c>
+      <c r="F54" s="3">
         <v>92900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>105100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>118300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>110200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>36800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>41500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2878,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,38 +2974,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +3024,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F60" s="3">
         <v>16600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,32 +3124,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,17 +3165,23 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3324,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F66" s="3">
         <v>16600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>73000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3594,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-94200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-74100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-61500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-65500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-55700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-44400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3794,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>62100</v>
+      </c>
+      <c r="F76" s="3">
         <v>76300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>93900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>105600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>101200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-54000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-44200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-36000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,16 +4023,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3645,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3662,17 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3962,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3983,22 +4425,28 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>10800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-72000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-40200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,32 +4809,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>90800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4356,48 +4848,54 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4405,54 +4903,66 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-43000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,106 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>18000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,8 +780,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,11 +1037,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,79 +1151,83 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,20 +1243,23 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,29 +1278,30 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,11 +1317,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1295,29 +1329,32 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-20000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1333,20 +1370,23 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,8 +1405,8 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1384,69 +1424,75 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,29 +1912,32 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,11 +1953,11 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E41" s="3">
         <v>19200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E42" s="3">
         <v>36500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>82600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>84800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>96400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,8 +2347,8 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2264,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,40 +2436,43 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E46" s="3">
         <v>58000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>77400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>104300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>117700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,32 +2607,32 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,22 +2807,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2713,18 +2833,18 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E54" s="3">
         <v>58000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>77600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,24 +3287,24 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>73000</v>
@@ -3533,7 +3701,7 @@
         <v>73000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-94200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E76" s="3">
         <v>51500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>105600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-54000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-44200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-36000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,29 +4223,30 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -4422,31 +4643,34 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E94" s="3">
         <v>25900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,23 +5073,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>90800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4854,60 +5100,63 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,24 +760,24 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>18000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -783,11 +790,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,26 +1061,32 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,11 +1096,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1203,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,26 +1273,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1246,20 +1305,26 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,26 +1355,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,20 +1387,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,26 +1414,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-11100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,20 +1446,26 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1408,11 +1487,11 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1427,72 +1506,84 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,26 +2063,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1956,73 +2095,85 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2398,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F41" s="3">
         <v>28900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,47 +2453,53 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F42" s="3">
         <v>19100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>36500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>62500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>82600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>84800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>96400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>97800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>25700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>32900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>36300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2350,29 +2535,29 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2630,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2689,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F46" s="3">
         <v>49500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>58000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>77400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>92100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>104300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>117700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>109700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>35600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>40700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2748,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,46 +2807,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>400</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +3043,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2830,27 +3069,27 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3161,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F54" s="3">
         <v>49500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>58000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>77600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>92900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>105100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>118300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>110200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>30300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>36800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>41500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3270,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3384,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3443,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3502,14 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,27 +3581,27 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,17 +3611,23 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3797,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3856,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>73000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +4115,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-128200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-120300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-109000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-94200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-74100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-65500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-55700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-36200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4351,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F76" s="3">
         <v>44000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>51500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>62100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>76300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>93900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>105600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>101200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-54000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-44200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-36000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,16 +4630,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4251,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4268,17 +4665,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4634,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4655,22 +5096,28 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F94" s="3">
         <v>17200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>25900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>10800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-72000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-40200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5546,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5076,26 +5567,26 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>90800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5103,19 +5594,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,37 +5620,37 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5161,63 +5658,75 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-43000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -766,21 +770,21 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>18000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,8 +800,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1085,11 +1105,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,97 +1231,101 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
         <v>6500</v>
       </c>
       <c r="F17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,20 +1341,23 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,38 +1379,39 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,11 +1427,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1405,38 +1439,41 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,49 +1489,52 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-6600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1512,78 +1552,84 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,38 +2121,41 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,11 +2171,11 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E41" s="3">
         <v>45200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>700</v>
+      </c>
+      <c r="E42" s="3">
         <v>4800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>62500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>82600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>84800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2541,8 +2634,8 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2551,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,49 +2732,52 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E46" s="3">
         <v>51200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>58000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>104300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>117700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2831,32 +2939,32 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,16 +3166,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3066,14 +3186,14 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -3081,18 +3201,18 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E54" s="3">
         <v>51200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>77600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3587,24 +3733,24 @@
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4036,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>73000</v>
@@ -4045,7 +4213,7 @@
         <v>73000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-133400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-128200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-120300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-94200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E76" s="3">
         <v>47000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>76300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>105600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-54000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-44200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-36000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4636,23 +4835,23 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5081,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5093,31 +5314,34 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>25900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,17 +5795,20 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>13700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5573,23 +5819,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>90800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5600,19 +5846,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>8000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5626,43 +5875,43 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LABP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>LABP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +768,8 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -773,21 +777,21 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>18000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,8 +807,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,8 +1118,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1108,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6500</v>
       </c>
       <c r="F17" s="3">
         <v>6500</v>
       </c>
       <c r="G17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1305,30 +1335,30 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,20 +1374,23 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,30 +1425,30 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,11 +1464,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1453,30 +1490,30 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,20 +1529,23 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-6600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1530,14 +1570,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1555,81 +1595,87 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,30 +2205,30 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2174,11 +2244,11 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E41" s="3">
         <v>44000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>62500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>82600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>84800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,34 +2701,37 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2647,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,52 +2831,55 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>100</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E46" s="3">
         <v>46300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>51200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>58000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>77400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>104300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>117700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,8 +3040,8 @@
       <c r="E48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2942,32 +3050,32 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3180,8 +3300,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3189,14 +3309,14 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -3204,18 +3324,18 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E54" s="3">
         <v>46300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>77600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,47 +3856,50 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4207,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>73000</v>
@@ -4216,7 +4384,7 @@
         <v>73000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-120300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-94200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E76" s="3">
         <v>43300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-54000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-44200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4838,23 +5037,23 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5305,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -5317,31 +5538,34 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>25900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>19500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,20 +6041,23 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5822,23 +6068,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>90800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5849,19 +6095,22 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5878,43 +6127,43 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
